--- a/data/raw_data/2011/permits-issued-by-nationality-2011.xlsx
+++ b/data/raw_data/2011/permits-issued-by-nationality-2011.xlsx
@@ -1,22 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\ESTUDOS DATA SCIENCE\ie-employment-permit\data\raw_data\2011\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77DFF21-4308-4C96-BBFE-25218A484FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15180" windowHeight="8070"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$116</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="99">
   <si>
     <t>Year</t>
   </si>
@@ -72,18 +92,12 @@
     <t>Bosnia and Herzegovina</t>
   </si>
   <si>
-    <t>Bosnia Herzegovina</t>
-  </si>
-  <si>
     <t>Botswana</t>
   </si>
   <si>
     <t>Brazil</t>
   </si>
   <si>
-    <t>Brazilian</t>
-  </si>
-  <si>
     <t>Bulgaria</t>
   </si>
   <si>
@@ -102,9 +116,6 @@
     <t>China</t>
   </si>
   <si>
-    <t>Chinese</t>
-  </si>
-  <si>
     <t>Colombia</t>
   </si>
   <si>
@@ -141,9 +152,6 @@
     <t>Honduras</t>
   </si>
   <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
@@ -153,9 +161,6 @@
     <t>Iran</t>
   </si>
   <si>
-    <t>Iran, Islamic Republic of</t>
-  </si>
-  <si>
     <t>Iraq</t>
   </si>
   <si>
@@ -177,21 +182,9 @@
     <t>Kenya</t>
   </si>
   <si>
-    <t>Korea (Republic of (South))</t>
-  </si>
-  <si>
-    <t>Korea, Republic of</t>
-  </si>
-  <si>
-    <t>Kosova</t>
-  </si>
-  <si>
     <t>Kuwait</t>
   </si>
   <si>
-    <t>Kyrgyz Republic</t>
-  </si>
-  <si>
     <t>Latvia</t>
   </si>
   <si>
@@ -201,24 +194,12 @@
     <t>Libya</t>
   </si>
   <si>
-    <t>Libyan Arab Jamahiriya</t>
-  </si>
-  <si>
-    <t>Macedonia (FYR)</t>
-  </si>
-  <si>
-    <t>Macedonia, The Former Yugoslav Republic of</t>
-  </si>
-  <si>
     <t>Malawi</t>
   </si>
   <si>
     <t>Malaysia</t>
   </si>
   <si>
-    <t>Malaysian</t>
-  </si>
-  <si>
     <t>Mauritania</t>
   </si>
   <si>
@@ -231,9 +212,6 @@
     <t>Moldova</t>
   </si>
   <si>
-    <t>Moldova, Republic of</t>
-  </si>
-  <si>
     <t>Mongolia</t>
   </si>
   <si>
@@ -243,9 +221,6 @@
     <t>Myanmar</t>
   </si>
   <si>
-    <t>Myanmar (Formerly Burma)</t>
-  </si>
-  <si>
     <t>Nepal</t>
   </si>
   <si>
@@ -261,42 +236,21 @@
     <t>Pakistan</t>
   </si>
   <si>
-    <t>Palestine</t>
-  </si>
-  <si>
-    <t>Paraquay</t>
-  </si>
-  <si>
     <t>Philippines</t>
   </si>
   <si>
-    <t>Republic of Serbia</t>
-  </si>
-  <si>
     <t>Romania</t>
   </si>
   <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
     <t>Samoa</t>
   </si>
   <si>
-    <t>Samoa(USA)</t>
-  </si>
-  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
     <t>Serbia</t>
   </si>
   <si>
-    <t>Serbia and Montenegro</t>
-  </si>
-  <si>
     <t>Singapore</t>
   </si>
   <si>
@@ -306,24 +260,15 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>St Vincent and the Grenadines</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
     <t>Syria</t>
   </si>
   <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
     <t>Tanzania</t>
   </si>
   <si>
-    <t>Tanzania, United Republic of</t>
-  </si>
-  <si>
     <t>Thailand</t>
   </si>
   <si>
@@ -333,9 +278,6 @@
     <t>Trinidad and Tobago</t>
   </si>
   <si>
-    <t>Trinidad &amp; Tobago</t>
-  </si>
-  <si>
     <t>Tunisia</t>
   </si>
   <si>
@@ -357,34 +299,46 @@
     <t>United States</t>
   </si>
   <si>
-    <t>United States of America</t>
-  </si>
-  <si>
     <t>Venezuela</t>
   </si>
   <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
     <t>Vietnam</t>
   </si>
   <si>
-    <t>Yugoslavia (Federal Republic of)</t>
-  </si>
-  <si>
     <t>Zambia</t>
   </si>
   <si>
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>(Not Categorized)</t>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>St. Vincent &amp; Grenadines</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -732,6 +686,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -780,7 +737,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -813,9 +770,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -848,6 +822,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1023,11 +1014,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,7 +1306,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1336,7 +1327,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
         <v>7</v>
@@ -1357,7 +1348,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
         <v>55</v>
@@ -1378,7 +1369,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1399,7 +1390,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
         <v>29</v>
@@ -1420,7 +1411,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1441,7 +1432,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -1462,7 +1453,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1">
         <v>79</v>
@@ -1483,7 +1474,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -1504,7 +1495,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1">
         <v>165</v>
@@ -1525,7 +1516,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -1546,7 +1537,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1">
         <v>6</v>
@@ -1567,7 +1558,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -1588,7 +1579,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
@@ -1609,7 +1600,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1">
         <v>9</v>
@@ -1630,7 +1621,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1">
         <v>15</v>
@@ -1651,7 +1642,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -1672,7 +1663,7 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -1693,7 +1684,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -1714,7 +1705,7 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
@@ -1735,7 +1726,7 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1">
         <v>2</v>
@@ -1756,7 +1747,7 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1">
         <v>2</v>
@@ -1777,7 +1768,7 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -1798,7 +1789,7 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -1819,7 +1810,7 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1">
         <v>974</v>
@@ -1840,7 +1831,7 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C39" s="1">
         <v>2</v>
@@ -1861,7 +1852,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -1882,7 +1873,7 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1">
         <v>2</v>
@@ -1903,7 +1894,7 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -1924,7 +1915,7 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1">
         <v>32</v>
@@ -1945,7 +1936,7 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C44" s="1">
         <v>2</v>
@@ -1966,7 +1957,7 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C45" s="1">
         <v>30</v>
@@ -1987,7 +1978,7 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C46" s="1">
         <v>7</v>
@@ -2008,7 +1999,7 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -2029,7 +2020,7 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C48" s="1">
         <v>5</v>
@@ -2050,7 +2041,7 @@
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
@@ -2071,7 +2062,7 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1">
         <v>16</v>
@@ -2092,7 +2083,7 @@
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -2113,7 +2104,7 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C52" s="1">
         <v>9</v>
@@ -2134,7 +2125,7 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="5" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
@@ -2155,7 +2146,7 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -2176,7 +2167,7 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C55" s="1">
         <v>5</v>
@@ -2197,7 +2188,7 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -2218,7 +2209,7 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -2239,7 +2230,7 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="5" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
@@ -2260,7 +2251,7 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="5" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -2281,7 +2272,7 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -2302,7 +2293,7 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C61" s="1">
         <v>155</v>
@@ -2323,7 +2314,7 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="5" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -2344,7 +2335,7 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
@@ -2365,7 +2356,7 @@
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C64" s="1">
         <v>10</v>
@@ -2386,7 +2377,7 @@
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="5" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C65" s="1">
         <v>9</v>
@@ -2407,7 +2398,7 @@
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="5" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C66" s="1">
         <v>5</v>
@@ -2428,7 +2419,7 @@
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C67" s="1">
         <v>7</v>
@@ -2449,7 +2440,7 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="5" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C68" s="1">
         <v>2</v>
@@ -2470,7 +2461,7 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="5" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C69" s="1">
         <v>11</v>
@@ -2491,7 +2482,7 @@
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="5" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C70" s="1">
         <v>2</v>
@@ -2512,7 +2503,7 @@
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="5" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C71" s="1">
         <v>2</v>
@@ -2533,7 +2524,7 @@
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="5" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C72" s="1">
         <v>10</v>
@@ -2554,7 +2545,7 @@
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="5" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C73" s="1">
         <v>35</v>
@@ -2575,7 +2566,7 @@
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="5" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C74" s="1">
         <v>28</v>
@@ -2596,7 +2587,7 @@
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="5" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C75" s="1">
         <v>2</v>
@@ -2617,7 +2608,7 @@
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="5" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C76" s="1">
         <v>63</v>
@@ -2638,7 +2629,7 @@
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="5" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
@@ -2659,7 +2650,7 @@
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -2680,7 +2671,7 @@
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="5" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C79" s="1">
         <v>203</v>
@@ -2701,7 +2692,7 @@
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="5" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C80" s="1">
         <v>9</v>
@@ -2722,7 +2713,7 @@
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="5" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C81" s="1">
         <v>313</v>
@@ -2743,7 +2734,7 @@
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="5" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C82" s="1">
         <v>50</v>
@@ -2764,7 +2755,7 @@
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
@@ -2785,7 +2776,7 @@
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="5" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -2806,7 +2797,7 @@
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C85" s="1">
         <v>0</v>
@@ -2827,7 +2818,7 @@
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="5" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
@@ -2848,7 +2839,7 @@
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="5" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C87" s="1">
         <v>0</v>
@@ -2869,7 +2860,7 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="5" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C88" s="1">
         <v>7</v>
@@ -2890,7 +2881,7 @@
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="5" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C89" s="1">
         <v>11</v>
@@ -2911,7 +2902,7 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="5" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C90" s="1">
         <v>64</v>
@@ -2932,7 +2923,7 @@
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="5" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C91" s="1">
         <v>8</v>
@@ -2953,7 +2944,7 @@
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
@@ -2974,7 +2965,7 @@
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="5" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
@@ -2995,7 +2986,7 @@
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="5" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C94" s="1">
         <v>0</v>
@@ -3016,7 +3007,7 @@
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="5" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C95" s="1">
         <v>4</v>
@@ -3037,7 +3028,7 @@
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="5" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C96" s="1">
         <v>0</v>
@@ -3058,7 +3049,7 @@
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="5" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C97" s="1">
         <v>2</v>
@@ -3079,7 +3070,7 @@
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="5" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C98" s="1">
         <v>30</v>
@@ -3100,7 +3091,7 @@
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="5" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C99" s="1">
         <v>1</v>
@@ -3121,7 +3112,7 @@
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="5" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C100" s="1">
         <v>2</v>
@@ -3142,7 +3133,7 @@
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="5" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C101" s="1">
         <v>1</v>
@@ -3163,7 +3154,7 @@
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="5" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C102" s="1">
         <v>2</v>
@@ -3184,7 +3175,7 @@
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="5" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C103" s="1">
         <v>48</v>
@@ -3205,7 +3196,7 @@
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="5" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C104" s="1">
         <v>2</v>
@@ -3226,7 +3217,7 @@
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="5" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C105" s="1">
         <v>49</v>
@@ -3247,7 +3238,7 @@
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="5" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
@@ -3268,7 +3259,7 @@
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="5" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C107" s="1">
         <v>1</v>
@@ -3289,7 +3280,7 @@
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="5" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C108" s="1">
         <v>2</v>
@@ -3310,7 +3301,7 @@
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="5" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C109" s="1">
         <v>424</v>
@@ -3331,7 +3322,7 @@
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="5" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C110" s="1">
         <v>2</v>
@@ -3352,7 +3343,7 @@
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="5" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C111" s="1">
         <v>1</v>
@@ -3373,7 +3364,7 @@
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="5" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="C112" s="1">
         <v>0</v>
@@ -3394,7 +3385,7 @@
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="5" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C113" s="1">
         <v>1</v>
@@ -3415,7 +3406,7 @@
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="5" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C114" s="1">
         <v>2</v>
@@ -3436,7 +3427,7 @@
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="5" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C115" s="1">
         <v>8</v>
@@ -3457,7 +3448,7 @@
     <row r="116" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
       <c r="B116" s="7" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C116" s="12">
         <v>19</v>
@@ -3476,12 +3467,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G116" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3493,7 +3485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
